--- a/GBDS SEPTEMBER FILES 2025/SHORT OVER ALL ROUTES - SEPTEMBER.xlsx
+++ b/GBDS SEPTEMBER FILES 2025/SHORT OVER ALL ROUTES - SEPTEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS SEPTEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3176E979-8156-463D-9258-B61F57D70FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2859C5-8878-437E-AC8D-63BE0491DC18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="SEPTEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -752,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -9131,7 +9131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
